--- a/EJEMPLOS/EXCEL_ENTRADA.xlsx
+++ b/EJEMPLOS/EXCEL_ENTRADA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>nombre_muestreo</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>10:04:07</t>
+  </si>
+  <si>
+    <t>configuracion_perfilador</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
   <dimension ref="A1:BB19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="K2" sqref="K2:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -532,7 +535,9 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -608,6 +613,9 @@
       <c r="J2">
         <v>12.89</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:54">
       <c r="A3" t="s">
@@ -640,6 +648,9 @@
       <c r="J3">
         <v>13.01</v>
       </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:54">
       <c r="A4" t="s">
@@ -672,6 +683,9 @@
       <c r="J4">
         <v>13.02</v>
       </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:54">
       <c r="A5" t="s">
@@ -704,6 +718,9 @@
       <c r="J5">
         <v>13.03</v>
       </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:54">
       <c r="A6" t="s">
@@ -736,6 +753,9 @@
       <c r="J6">
         <v>13.05</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:54">
       <c r="A7" t="s">
@@ -768,6 +788,9 @@
       <c r="J7">
         <v>12.66</v>
       </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:54">
       <c r="A8" t="s">
@@ -800,6 +823,9 @@
       <c r="J8">
         <v>12.65</v>
       </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:54">
       <c r="A9" t="s">
@@ -832,6 +858,9 @@
       <c r="J9">
         <v>12.9</v>
       </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:54">
       <c r="A10" t="s">
@@ -864,6 +893,9 @@
       <c r="J10">
         <v>12.85</v>
       </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:54">
       <c r="A11" t="s">
@@ -896,6 +928,9 @@
       <c r="J11">
         <v>12.89</v>
       </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:54">
       <c r="A12" t="s">
@@ -928,6 +963,9 @@
       <c r="J12">
         <v>12.9</v>
       </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:54">
       <c r="A13" t="s">
@@ -960,6 +998,9 @@
       <c r="J13">
         <v>12.93</v>
       </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:54">
       <c r="A14" t="s">
@@ -992,6 +1033,9 @@
       <c r="J14">
         <v>12.82</v>
       </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:54">
       <c r="A15" t="s">
@@ -1024,6 +1068,9 @@
       <c r="J15">
         <v>13.03</v>
       </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:54">
       <c r="A16" t="s">
@@ -1056,8 +1103,11 @@
       <c r="J16">
         <v>13.03</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1088,8 +1138,11 @@
       <c r="J17">
         <v>12.89</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1120,8 +1173,11 @@
       <c r="J18">
         <v>12.88</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1151,6 +1207,9 @@
       </c>
       <c r="J19">
         <v>12.71</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/EJEMPLOS/EXCEL_ENTRADA.xlsx
+++ b/EJEMPLOS/EXCEL_ENTRADA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>nombre_muestreo</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>configuracion_perfilador</t>
+  </si>
+  <si>
+    <t>configuracion_superficie</t>
   </si>
 </sst>
 </file>
@@ -494,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -538,7 +541,9 @@
       <c r="K1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -616,6 +621,9 @@
       <c r="K2">
         <v>1</v>
       </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:54">
       <c r="A3" t="s">
@@ -651,6 +659,9 @@
       <c r="K3">
         <v>1</v>
       </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:54">
       <c r="A4" t="s">
@@ -686,6 +697,9 @@
       <c r="K4">
         <v>1</v>
       </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:54">
       <c r="A5" t="s">
@@ -721,6 +735,9 @@
       <c r="K5">
         <v>1</v>
       </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:54">
       <c r="A6" t="s">
@@ -756,6 +773,9 @@
       <c r="K6">
         <v>1</v>
       </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:54">
       <c r="A7" t="s">
@@ -791,6 +811,9 @@
       <c r="K7">
         <v>1</v>
       </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:54">
       <c r="A8" t="s">
@@ -826,6 +849,9 @@
       <c r="K8">
         <v>1</v>
       </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:54">
       <c r="A9" t="s">
@@ -861,6 +887,9 @@
       <c r="K9">
         <v>1</v>
       </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:54">
       <c r="A10" t="s">
@@ -896,6 +925,9 @@
       <c r="K10">
         <v>1</v>
       </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:54">
       <c r="A11" t="s">
@@ -931,6 +963,9 @@
       <c r="K11">
         <v>1</v>
       </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:54">
       <c r="A12" t="s">
@@ -966,6 +1001,9 @@
       <c r="K12">
         <v>1</v>
       </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:54">
       <c r="A13" t="s">
@@ -1001,6 +1039,9 @@
       <c r="K13">
         <v>1</v>
       </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:54">
       <c r="A14" t="s">
@@ -1036,6 +1077,9 @@
       <c r="K14">
         <v>1</v>
       </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:54">
       <c r="A15" t="s">
@@ -1071,6 +1115,9 @@
       <c r="K15">
         <v>1</v>
       </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:54">
       <c r="A16" t="s">
@@ -1106,8 +1153,11 @@
       <c r="K16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1141,8 +1191,11 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1176,8 +1229,11 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1209,6 +1265,9 @@
         <v>12.71</v>
       </c>
       <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>1</v>
       </c>
     </row>

--- a/EJEMPLOS/EXCEL_ENTRADA.xlsx
+++ b/EJEMPLOS/EXCEL_ENTRADA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>nombre_muestreo</t>
   </si>
@@ -46,60 +46,6 @@
     <t>temperatura_ctd</t>
   </si>
   <si>
-    <t>RADCOR_20220307_E3A_C2_B1</t>
-  </si>
-  <si>
-    <t>RADCOR_20220307_E4_C5_B7</t>
-  </si>
-  <si>
-    <t>RADCOR_20220307_E4_C5_B5</t>
-  </si>
-  <si>
-    <t>RADCOR_20220307_E4_C5_B3</t>
-  </si>
-  <si>
-    <t>RADCOR_20220307_E4_C5_B1</t>
-  </si>
-  <si>
-    <t>RADCOR_20220307_E3B_C4_B3</t>
-  </si>
-  <si>
-    <t>RADCOR_20220307_E3B_C4_B1</t>
-  </si>
-  <si>
-    <t>RADCOR_20220307_E2_C1_B11</t>
-  </si>
-  <si>
-    <t>RADCOR_20220307_E2_C1_B9</t>
-  </si>
-  <si>
-    <t>RADCOR_20220307_E2_C1_B7</t>
-  </si>
-  <si>
-    <t>RADCOR_20220307_E2_C1_B5</t>
-  </si>
-  <si>
-    <t>RADCOR_20220307_E2_C1_B3</t>
-  </si>
-  <si>
-    <t>RADCOR_20220307_E2_C1_B1</t>
-  </si>
-  <si>
-    <t>RADCOR_20220307_E3C_C3_B3</t>
-  </si>
-  <si>
-    <t>RADCOR_20220307_E3C_C3_B1</t>
-  </si>
-  <si>
-    <t>RADCOR_20220307_E3A_C2_B3</t>
-  </si>
-  <si>
-    <t>RADCOR_20220307_E4_C5_B9</t>
-  </si>
-  <si>
-    <t>RADCOR_20220307_E4_C5_B11</t>
-  </si>
-  <si>
     <t>3A</t>
   </si>
   <si>
@@ -115,25 +61,97 @@
     <t>3C</t>
   </si>
   <si>
-    <t>09:50:05</t>
-  </si>
-  <si>
-    <t>10:41:15</t>
-  </si>
-  <si>
-    <t>10:21:09</t>
-  </si>
-  <si>
-    <t>08:40:23</t>
-  </si>
-  <si>
-    <t>10:04:07</t>
-  </si>
-  <si>
-    <t>configuracion_perfilador</t>
-  </si>
-  <si>
-    <t>configuracion_superficie</t>
+    <t>temperatura_ctd_qf</t>
+  </si>
+  <si>
+    <t>salinidad_ctd</t>
+  </si>
+  <si>
+    <t>salinidad_ctd_qf</t>
+  </si>
+  <si>
+    <t>par_ctd</t>
+  </si>
+  <si>
+    <t>par_ctd_qf</t>
+  </si>
+  <si>
+    <t>turbidez_ctd</t>
+  </si>
+  <si>
+    <t>turbidez_ctd_qf</t>
+  </si>
+  <si>
+    <t>fluorescencia_ctd</t>
+  </si>
+  <si>
+    <t>RADCOR_20220118_E2_C1_B1</t>
+  </si>
+  <si>
+    <t>08:35:23</t>
+  </si>
+  <si>
+    <t>RADCOR_20220118_E4_C5_B7</t>
+  </si>
+  <si>
+    <t>10:30:47</t>
+  </si>
+  <si>
+    <t>RADCOR_20220118_E4_C5_B5</t>
+  </si>
+  <si>
+    <t>RADCOR_20220118_E4_C5_B3</t>
+  </si>
+  <si>
+    <t>RADCOR_20220118_E4_C5_B1</t>
+  </si>
+  <si>
+    <t>RADCOR_20220118_E3C_C3_B3</t>
+  </si>
+  <si>
+    <t>09:54:53</t>
+  </si>
+  <si>
+    <t>RADCOR_20220118_E3C_C3_B1</t>
+  </si>
+  <si>
+    <t>RADCOR_20220118_E3B_C4_B3</t>
+  </si>
+  <si>
+    <t>10:11:14</t>
+  </si>
+  <si>
+    <t>RADCOR_20220118_E3B_C4_B1</t>
+  </si>
+  <si>
+    <t>RADCOR_20220118_E3A_C2_B3</t>
+  </si>
+  <si>
+    <t>09:40:13</t>
+  </si>
+  <si>
+    <t>RADCOR_20220118_E3A_C2_B1</t>
+  </si>
+  <si>
+    <t>RADCOR_20220118_E2_C1_B11</t>
+  </si>
+  <si>
+    <t>RADCOR_20220118_E2_C1_B9</t>
+  </si>
+  <si>
+    <t>RADCOR_20220118_E2_C1_B7</t>
+  </si>
+  <si>
+    <t>RADCOR_20220118_E2_C1_B5</t>
+  </si>
+  <si>
+    <t>RADCOR_20220118_E2_C1_B3</t>
+  </si>
+  <si>
+    <t>RADCOR_20220118_E4_C5_B9</t>
+  </si>
+  <si>
+    <t>RADCOR_20220118_E4_C5_B11</t>
   </si>
 </sst>
 </file>
@@ -497,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -539,17 +557,29 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -589,48 +619,63 @@
     </row>
     <row r="2" spans="1:54">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>43.406700000000001</v>
+        <v>43.421700000000001</v>
       </c>
       <c r="D2">
-        <v>-8.4167000000000005</v>
+        <v>-8.4367000000000001</v>
       </c>
       <c r="E2" s="2">
-        <v>44627</v>
+        <v>44579</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.73</v>
+        <v>71.91</v>
       </c>
       <c r="J2">
-        <v>12.89</v>
+        <v>13.68</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>35.607999999999997</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>34.040999999999997</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>9</v>
+      </c>
+      <c r="R2">
+        <v>0.89990000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:54">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
       </c>
       <c r="C3">
         <v>43.363300000000002</v>
@@ -639,10 +684,10 @@
         <v>-8.3699999999999992</v>
       </c>
       <c r="E3" s="2">
-        <v>44627</v>
+        <v>44579</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -651,24 +696,39 @@
         <v>7</v>
       </c>
       <c r="I3">
-        <v>4.3600000000000003</v>
+        <v>4.71</v>
       </c>
       <c r="J3">
-        <v>13.01</v>
+        <v>13.47</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>35.377000000000002</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>152.03</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>9</v>
+      </c>
+      <c r="R3">
+        <v>1.3495999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:54">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>43.363300000000002</v>
@@ -677,10 +737,10 @@
         <v>-8.3699999999999992</v>
       </c>
       <c r="E4" s="2">
-        <v>44627</v>
+        <v>44579</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -689,24 +749,39 @@
         <v>5</v>
       </c>
       <c r="I4">
-        <v>8.7899999999999991</v>
+        <v>7.46</v>
       </c>
       <c r="J4">
-        <v>13.02</v>
+        <v>13.55</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>35.447000000000003</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>94.061999999999998</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>9</v>
+      </c>
+      <c r="R4">
+        <v>1.3058000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:54">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>43.363300000000002</v>
@@ -715,10 +790,10 @@
         <v>-8.3699999999999992</v>
       </c>
       <c r="E5" s="2">
-        <v>44627</v>
+        <v>44579</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -727,24 +802,39 @@
         <v>3</v>
       </c>
       <c r="I5">
-        <v>12.66</v>
+        <v>12</v>
       </c>
       <c r="J5">
-        <v>13.03</v>
+        <v>13.54</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>35.450000000000003</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>65.691999999999993</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>9</v>
+      </c>
+      <c r="R5">
+        <v>1.2647999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:54">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>43.363300000000002</v>
@@ -753,10 +843,10 @@
         <v>-8.3699999999999992</v>
       </c>
       <c r="E6" s="2">
-        <v>44627</v>
+        <v>44579</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -765,252 +855,357 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>17.27</v>
+        <v>17.57</v>
       </c>
       <c r="J6">
-        <v>13.05</v>
+        <v>13.63</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>35.475999999999999</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>54.649000000000001</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>9</v>
+      </c>
+      <c r="R6">
+        <v>1.2684</v>
       </c>
     </row>
     <row r="7" spans="1:54">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>43.388300000000001</v>
+        <v>43.393300000000004</v>
       </c>
       <c r="D7">
-        <v>-8.3833000000000002</v>
+        <v>-8.4</v>
       </c>
       <c r="E7" s="2">
-        <v>44627</v>
+        <v>44579</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="I7">
-        <v>1.42</v>
+        <v>2.21</v>
       </c>
       <c r="J7">
-        <v>12.66</v>
+        <v>13.4</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>35.430999999999997</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>218.34</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>9</v>
+      </c>
+      <c r="R7">
+        <v>1.2081</v>
       </c>
     </row>
     <row r="8" spans="1:54">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>43.388300000000001</v>
+        <v>43.393300000000004</v>
       </c>
       <c r="D8">
-        <v>-8.3833000000000002</v>
+        <v>-8.4</v>
       </c>
       <c r="E8" s="2">
-        <v>44627</v>
+        <v>44579</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0900000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="J8">
-        <v>12.65</v>
+        <v>13.4</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>35.430999999999997</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>262.33999999999997</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>9</v>
+      </c>
+      <c r="R8">
+        <v>1.198</v>
       </c>
     </row>
     <row r="9" spans="1:54">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>43.421700000000001</v>
+        <v>43.388300000000001</v>
       </c>
       <c r="D9">
-        <v>-8.4367000000000001</v>
+        <v>-8.3833000000000002</v>
       </c>
       <c r="E9" s="2">
-        <v>44627</v>
+        <v>44579</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>5.08</v>
+        <v>1.72</v>
       </c>
       <c r="J9">
-        <v>12.9</v>
+        <v>13.35</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>35.31</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>283.39</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>9</v>
+      </c>
+      <c r="R9">
+        <v>1.2131000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:54">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>43.421700000000001</v>
+        <v>43.388300000000001</v>
       </c>
       <c r="D10">
-        <v>-8.4367000000000001</v>
+        <v>-8.3833000000000002</v>
       </c>
       <c r="E10" s="2">
-        <v>44627</v>
+        <v>44579</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>10.54</v>
+        <v>1.73</v>
       </c>
       <c r="J10">
-        <v>12.85</v>
+        <v>13.35</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>35.31</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>302.52999999999997</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>9</v>
+      </c>
+      <c r="R10">
+        <v>1.2239</v>
       </c>
     </row>
     <row r="11" spans="1:54">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>43.421700000000001</v>
+        <v>43.406700000000001</v>
       </c>
       <c r="D11">
-        <v>-8.4367000000000001</v>
+        <v>-8.4167000000000005</v>
       </c>
       <c r="E11" s="2">
-        <v>44627</v>
+        <v>44579</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>20.93</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>12.89</v>
+        <v>13.4</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>35.402999999999999</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>190.17</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+      <c r="R11">
+        <v>1.3028999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:54">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>43.421700000000001</v>
+        <v>43.406700000000001</v>
       </c>
       <c r="D12">
-        <v>-8.4367000000000001</v>
+        <v>-8.4167000000000005</v>
       </c>
       <c r="E12" s="2">
-        <v>44627</v>
+        <v>44579</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>29.73</v>
+        <v>1.96</v>
       </c>
       <c r="J12">
-        <v>12.9</v>
+        <v>13.39</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>35.404000000000003</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>167.04</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>9</v>
+      </c>
+      <c r="R12">
+        <v>1.3438000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:54">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>43.421700000000001</v>
@@ -1019,36 +1214,51 @@
         <v>-8.4367000000000001</v>
       </c>
       <c r="E13" s="2">
-        <v>44627</v>
+        <v>44579</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I13">
-        <v>43.3</v>
+        <v>5.97</v>
       </c>
       <c r="J13">
-        <v>12.93</v>
+        <v>13.39</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>35.459000000000003</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>46.082000000000001</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>9</v>
+      </c>
+      <c r="R13">
+        <v>1.8566</v>
       </c>
     </row>
     <row r="14" spans="1:54">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>43.421700000000001</v>
@@ -1057,150 +1267,210 @@
         <v>-8.4367000000000001</v>
       </c>
       <c r="E14" s="2">
-        <v>44627</v>
+        <v>44579</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I14">
-        <v>72.09</v>
+        <v>10.09</v>
       </c>
       <c r="J14">
-        <v>12.82</v>
+        <v>13.38</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>35.457999999999998</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>37.689</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>9</v>
+      </c>
+      <c r="R14">
+        <v>1.9156</v>
       </c>
     </row>
     <row r="15" spans="1:54">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>43.393300000000004</v>
+        <v>43.421700000000001</v>
       </c>
       <c r="D15">
-        <v>-8.4</v>
+        <v>-8.4367000000000001</v>
       </c>
       <c r="E15" s="2">
-        <v>44627</v>
+        <v>44579</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I15">
-        <v>1.72</v>
+        <v>20.68</v>
       </c>
       <c r="J15">
-        <v>13.03</v>
+        <v>13.4</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>35.462000000000003</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>33.258000000000003</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>9</v>
+      </c>
+      <c r="R15">
+        <v>1.9420999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:54">
       <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>43.421700000000001</v>
+      </c>
+      <c r="D16">
+        <v>-8.4367000000000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>44579</v>
+      </c>
+      <c r="F16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16">
-        <v>43.393300000000004</v>
-      </c>
-      <c r="D16">
-        <v>-8.4</v>
-      </c>
-      <c r="E16" s="2">
-        <v>44627</v>
-      </c>
-      <c r="F16" t="s">
-        <v>37</v>
-      </c>
       <c r="G16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>1.72</v>
+        <v>29.78</v>
       </c>
       <c r="J16">
-        <v>13.03</v>
+        <v>13.41</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>35.463999999999999</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>33.906999999999996</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>9</v>
+      </c>
+      <c r="R16">
+        <v>1.9981</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C17">
-        <v>43.406700000000001</v>
+        <v>43.421700000000001</v>
       </c>
       <c r="D17">
-        <v>-8.4167000000000005</v>
+        <v>-8.4367000000000001</v>
       </c>
       <c r="E17" s="2">
-        <v>44627</v>
+        <v>44579</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>3</v>
       </c>
       <c r="I17">
-        <v>1.28</v>
+        <v>40.39</v>
       </c>
       <c r="J17">
-        <v>12.89</v>
+        <v>13.42</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>35.468000000000004</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>36.194000000000003</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>9</v>
+      </c>
+      <c r="R17">
+        <v>2.0813999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>43.363300000000002</v>
@@ -1209,10 +1479,10 @@
         <v>-8.3699999999999992</v>
       </c>
       <c r="E18" s="2">
-        <v>44627</v>
+        <v>44579</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -1221,24 +1491,39 @@
         <v>9</v>
       </c>
       <c r="I18">
-        <v>1.5</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J18">
-        <v>12.88</v>
+        <v>13.34</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>35.241</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>507.84</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>9</v>
+      </c>
+      <c r="R18">
+        <v>1.2266999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>43.363300000000002</v>
@@ -1247,10 +1532,10 @@
         <v>-8.3699999999999992</v>
       </c>
       <c r="E19" s="2">
-        <v>44627</v>
+        <v>44579</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -1259,16 +1544,31 @@
         <v>11</v>
       </c>
       <c r="I19">
-        <v>1.53</v>
+        <v>1.22</v>
       </c>
       <c r="J19">
-        <v>12.71</v>
+        <v>13.29</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>35.116</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>422.88</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>9</v>
+      </c>
+      <c r="R19">
+        <v>1.1520999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/EJEMPLOS/EXCEL_ENTRADA.xlsx
+++ b/EJEMPLOS/EXCEL_ENTRADA.xlsx
@@ -178,12 +178,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -213,12 +219,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,13 +525,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -532,25 +543,25 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -624,25 +635,25 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>43.421700000000001</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>-8.4367000000000001</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>44579</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
         <v>71.91</v>
       </c>
       <c r="J2">
@@ -677,25 +688,25 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>43.363300000000002</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>-8.3699999999999992</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>44579</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>7</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>4.71</v>
       </c>
       <c r="J3">
@@ -730,25 +741,25 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>43.363300000000002</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>-8.3699999999999992</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>44579</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>5</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>7.46</v>
       </c>
       <c r="J4">
@@ -783,25 +794,25 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>43.363300000000002</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>-8.3699999999999992</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>44579</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>5</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>12</v>
       </c>
       <c r="J5">
@@ -836,25 +847,25 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>43.363300000000002</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>-8.3699999999999992</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>44579</v>
       </c>
       <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>5</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
         <v>17.57</v>
       </c>
       <c r="J6">
@@ -889,25 +900,25 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>43.393300000000004</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>-8.4</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>44579</v>
       </c>
       <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>3</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>3</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>2.21</v>
       </c>
       <c r="J7">
@@ -942,25 +953,25 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>43.393300000000004</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>-8.4</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>44579</v>
       </c>
       <c r="F8" t="s">
         <v>31</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>3</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
         <v>2.08</v>
       </c>
       <c r="J8">
@@ -995,25 +1006,25 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>43.388300000000001</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>-8.3833000000000002</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>44579</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>4</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>3</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>1.72</v>
       </c>
       <c r="J9">
@@ -1048,25 +1059,25 @@
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>43.388300000000001</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>-8.3833000000000002</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>44579</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>4</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
         <v>1.73</v>
       </c>
       <c r="J10">
@@ -1101,25 +1112,25 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>43.406700000000001</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>-8.4167000000000005</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>44579</v>
       </c>
       <c r="F11" t="s">
         <v>37</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>2</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>3</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>2</v>
       </c>
       <c r="J11">
@@ -1154,25 +1165,25 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>43.406700000000001</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>-8.4167000000000005</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>44579</v>
       </c>
       <c r="F12" t="s">
         <v>37</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
         <v>1.96</v>
       </c>
       <c r="J12">
@@ -1207,25 +1218,25 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>43.421700000000001</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>-8.4367000000000001</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="4">
         <v>44579</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
         <v>11</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>5.97</v>
       </c>
       <c r="J13">
@@ -1260,25 +1271,25 @@
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>43.421700000000001</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>-8.4367000000000001</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="4">
         <v>44579</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>9</v>
-      </c>
-      <c r="I14">
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>9</v>
+      </c>
+      <c r="I14" s="3">
         <v>10.09</v>
       </c>
       <c r="J14">
@@ -1313,25 +1324,25 @@
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>43.421700000000001</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>-8.4367000000000001</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="4">
         <v>44579</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
         <v>7</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>20.68</v>
       </c>
       <c r="J15">
@@ -1366,25 +1377,25 @@
       <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>43.421700000000001</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>-8.4367000000000001</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="4">
         <v>44579</v>
       </c>
       <c r="F16" t="s">
         <v>24</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
         <v>5</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>29.78</v>
       </c>
       <c r="J16">
@@ -1419,25 +1430,25 @@
       <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>43.421700000000001</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>-8.4367000000000001</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="4">
         <v>44579</v>
       </c>
       <c r="F17" t="s">
         <v>24</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
         <v>3</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>40.39</v>
       </c>
       <c r="J17">
@@ -1472,25 +1483,25 @@
       <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>43.363300000000002</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>-8.3699999999999992</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <v>44579</v>
       </c>
       <c r="F18" t="s">
         <v>26</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>5</v>
       </c>
-      <c r="H18">
-        <v>9</v>
-      </c>
-      <c r="I18">
+      <c r="H18" s="3">
+        <v>9</v>
+      </c>
+      <c r="I18" s="3">
         <v>1.1599999999999999</v>
       </c>
       <c r="J18">
@@ -1525,25 +1536,25 @@
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>43.363300000000002</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>-8.3699999999999992</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
         <v>44579</v>
       </c>
       <c r="F19" t="s">
         <v>26</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>5</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>11</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>1.22</v>
       </c>
       <c r="J19">
